--- a/HotelPriceCalculator/Data/ROSE GARDEN PREMIUM HOTEL.xlsx
+++ b/HotelPriceCalculator/Data/ROSE GARDEN PREMIUM HOTEL.xlsx
@@ -1,18 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Odabasi\source\repos\HotelPriceCalculator\HotelPriceCalculator\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="720" yWindow="345" windowWidth="19320" windowHeight="7710" tabRatio="889"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6624" tabRatio="889"/>
   </bookViews>
   <sheets>
     <sheet name="ROSE GARDEN" sheetId="10" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'ROSE GARDEN'!$A$1:$J$31</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'ROSE GARDEN'!$A$1:$J$30</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -32,9 +37,6 @@
   </si>
   <si>
     <t>Otel Yetkilisi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SINGLE </t>
   </si>
   <si>
     <t xml:space="preserve">STANDART ROOM </t>
@@ -78,11 +80,14 @@
   <si>
     <t>E.B.</t>
   </si>
+  <si>
+    <t>SINGLE ROOM</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="#,##0.00\ _T_L"/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;TL&quot;"/>
@@ -90,7 +95,7 @@
     <numFmt numFmtId="167" formatCode="[$€-2]\ #,##0.00"/>
     <numFmt numFmtId="168" formatCode="dd/mm/yy;@"/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -262,15 +267,6 @@
     <font>
       <b/>
       <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="162"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="162"/>
@@ -1013,9 +1009,9 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
     <xf numFmtId="166" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1033,39 +1029,39 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="23" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="22" fillId="33" borderId="23" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="24" fillId="33" borderId="20" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="23" fillId="33" borderId="20" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="24" fillId="33" borderId="21" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="23" fillId="33" borderId="21" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
@@ -1078,7 +1074,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="23" fillId="33" borderId="14" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="19" fillId="33" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="21" fillId="33" borderId="20" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="22" fillId="33" borderId="22" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1095,10 +1090,10 @@
     <xf numFmtId="168" fontId="19" fillId="33" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="24" fillId="33" borderId="29" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="23" fillId="33" borderId="29" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="24" fillId="33" borderId="32" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="23" fillId="33" borderId="32" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1126,89 +1121,77 @@
     <xf numFmtId="1" fontId="22" fillId="33" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="3" fontId="24" fillId="33" borderId="19" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="23" fillId="33" borderId="19" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="24" fillId="33" borderId="31" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="23" fillId="33" borderId="31" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="22" fillId="34" borderId="25" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="21" fillId="34" borderId="26" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="19" fillId="33" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="19" fillId="33" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="19" fillId="33" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="167" fontId="22" fillId="35" borderId="19" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="22" fillId="35" borderId="31" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="19" fillId="33" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="22" fillId="33" borderId="34" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="164" fontId="22" fillId="33" borderId="35" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="24" fillId="33" borderId="22" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="23" fillId="33" borderId="22" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="22" fillId="33" borderId="17" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="167" fontId="24" fillId="33" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="23" fillId="33" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="24" fillId="33" borderId="27" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="23" fillId="33" borderId="27" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="24" fillId="33" borderId="19" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="23" fillId="33" borderId="19" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" xfId="44" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" xfId="44" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
-    <xf numFmtId="1" fontId="29" fillId="33" borderId="11" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="29" fillId="33" borderId="12" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="29" fillId="33" borderId="13" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="29" fillId="33" borderId="14" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="29" fillId="33" borderId="15" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="29" fillId="33" borderId="16" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="28" fillId="33" borderId="11" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="28" fillId="33" borderId="12" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="28" fillId="33" borderId="13" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="28" fillId="33" borderId="14" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="28" fillId="33" borderId="15" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="28" fillId="33" borderId="16" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="21" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1290,9 +1273,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Ofis Teması">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Teması">
   <a:themeElements>
-    <a:clrScheme name="Ofis">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1330,9 +1313,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Ofis">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1367,7 +1350,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1402,7 +1385,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Ofis">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1576,639 +1559,639 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="6.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="13.25" customWidth="1"/>
+    <col min="2" max="2" width="6.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="13.19921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="67" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="69"/>
+      <c r="B1" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="64"/>
     </row>
     <row r="2" spans="1:10" ht="16.5" customHeight="1" thickBot="1">
       <c r="A2" s="2"/>
-      <c r="B2" s="70"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="72"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="67"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="73" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="75"/>
+      <c r="B3" s="68" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="70"/>
     </row>
     <row r="4" spans="1:10" ht="16.5" customHeight="1" thickBot="1">
       <c r="A4" s="4"/>
-      <c r="B4" s="76"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="78"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="73"/>
     </row>
     <row r="5" spans="1:10" ht="28.5" customHeight="1" thickBot="1">
       <c r="A5" s="4"/>
-      <c r="B5" s="80" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="81"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="82"/>
-    </row>
-    <row r="6" spans="1:10" ht="16.5" thickBot="1">
+      <c r="B5" s="75" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="77"/>
+    </row>
+    <row r="6" spans="1:10" ht="16.2" thickBot="1">
       <c r="A6" s="5"/>
       <c r="B6" s="3"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="79"/>
-      <c r="J6" s="79"/>
-    </row>
-    <row r="7" spans="1:10" ht="16.5" thickBot="1">
+      <c r="C6" s="74"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="74"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="74"/>
+    </row>
+    <row r="7" spans="1:10" ht="16.2" thickBot="1">
       <c r="A7" s="23"/>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="39"/>
-    </row>
-    <row r="8" spans="1:10" ht="15.75">
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="38"/>
+    </row>
+    <row r="8" spans="1:10" ht="15.6">
       <c r="A8" s="16"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="40">
+      <c r="B8" s="27"/>
+      <c r="C8" s="39">
         <v>45468</v>
       </c>
-      <c r="D8" s="40">
+      <c r="D8" s="39">
         <f>C9+1</f>
         <v>45476</v>
       </c>
-      <c r="E8" s="35">
+      <c r="E8" s="34">
         <f t="shared" ref="E8:H8" si="0">D9+1</f>
         <v>45497</v>
       </c>
-      <c r="F8" s="40">
+      <c r="F8" s="39">
         <f t="shared" si="0"/>
         <v>45518</v>
       </c>
-      <c r="G8" s="35">
+      <c r="G8" s="34">
         <f t="shared" si="0"/>
         <v>45539</v>
       </c>
-      <c r="H8" s="40">
+      <c r="H8" s="39">
         <f t="shared" si="0"/>
         <v>45551</v>
       </c>
-      <c r="I8" s="35">
+      <c r="I8" s="34">
         <v>45566</v>
       </c>
-      <c r="J8" s="40">
+      <c r="J8" s="39">
         <v>45581</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="16.5" thickBot="1">
-      <c r="B9" s="29"/>
-      <c r="C9" s="41">
+    <row r="9" spans="1:10" ht="16.2" thickBot="1">
+      <c r="B9" s="28"/>
+      <c r="C9" s="40">
         <v>45475</v>
       </c>
-      <c r="D9" s="41">
+      <c r="D9" s="40">
         <v>45496</v>
       </c>
-      <c r="E9" s="36">
+      <c r="E9" s="35">
         <v>45517</v>
       </c>
-      <c r="F9" s="41">
+      <c r="F9" s="40">
         <v>45538</v>
       </c>
-      <c r="G9" s="36">
+      <c r="G9" s="35">
         <v>45550</v>
       </c>
-      <c r="H9" s="41">
+      <c r="H9" s="40">
         <v>45565</v>
       </c>
-      <c r="I9" s="36">
+      <c r="I9" s="35">
         <v>45580</v>
       </c>
-      <c r="J9" s="41">
+      <c r="J9" s="40">
         <v>45596</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="9.75" customHeight="1" thickBot="1">
-      <c r="A10" s="26"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="54"/>
-    </row>
-    <row r="11" spans="1:10" ht="16.5" thickBot="1">
-      <c r="A11" s="50" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="51"/>
-      <c r="C11" s="55">
+    <row r="10" spans="1:10" ht="16.2" thickBot="1">
+      <c r="A10" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="50"/>
+      <c r="C10" s="51">
         <v>90</v>
       </c>
-      <c r="D11" s="55">
+      <c r="D10" s="51">
         <v>110</v>
       </c>
-      <c r="E11" s="56">
+      <c r="E10" s="52">
         <v>130</v>
       </c>
-      <c r="F11" s="55">
+      <c r="F10" s="51">
         <v>120</v>
       </c>
-      <c r="G11" s="56">
+      <c r="G10" s="52">
         <v>110</v>
       </c>
-      <c r="H11" s="55">
+      <c r="H10" s="51">
         <v>100</v>
       </c>
-      <c r="I11" s="56">
+      <c r="I10" s="52">
         <v>64</v>
       </c>
-      <c r="J11" s="55">
+      <c r="J10" s="51">
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75">
+    <row r="11" spans="1:10" ht="15.6">
+      <c r="A11" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="42">
+        <v>1.8</v>
+      </c>
+      <c r="C11" s="18">
+        <f t="shared" ref="C11:J11" si="1">C10*$B11</f>
+        <v>162</v>
+      </c>
+      <c r="D11" s="18">
+        <f t="shared" si="1"/>
+        <v>198</v>
+      </c>
+      <c r="E11" s="36">
+        <f t="shared" si="1"/>
+        <v>234</v>
+      </c>
+      <c r="F11" s="18">
+        <f t="shared" si="1"/>
+        <v>216</v>
+      </c>
+      <c r="G11" s="36">
+        <f t="shared" si="1"/>
+        <v>198</v>
+      </c>
+      <c r="H11" s="18">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+      <c r="I11" s="36">
+        <f t="shared" si="1"/>
+        <v>115.2</v>
+      </c>
+      <c r="J11" s="18">
+        <f t="shared" si="1"/>
+        <v>104.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.6">
       <c r="A12" s="45" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="43">
-        <v>1.8</v>
-      </c>
-      <c r="C12" s="18">
-        <f t="shared" ref="C12" si="1">C11*$B12</f>
-        <v>162</v>
-      </c>
-      <c r="D12" s="18">
-        <f t="shared" ref="D12:J12" si="2">D11*$B12</f>
-        <v>198</v>
+        <v>1</v>
+      </c>
+      <c r="B12" s="31">
+        <v>2</v>
+      </c>
+      <c r="C12" s="19">
+        <f t="shared" ref="C12:J12" si="2">C10*$B12</f>
+        <v>180</v>
+      </c>
+      <c r="D12" s="19">
+        <f t="shared" si="2"/>
+        <v>220</v>
       </c>
       <c r="E12" s="37">
         <f t="shared" si="2"/>
+        <v>260</v>
+      </c>
+      <c r="F12" s="19">
+        <f t="shared" si="2"/>
+        <v>240</v>
+      </c>
+      <c r="G12" s="37">
+        <f t="shared" si="2"/>
+        <v>220</v>
+      </c>
+      <c r="H12" s="19">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="I12" s="37">
+        <f t="shared" si="2"/>
+        <v>128</v>
+      </c>
+      <c r="J12" s="19">
+        <f t="shared" si="2"/>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="16.2" thickBot="1">
+      <c r="A13" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="28">
+        <v>2.7</v>
+      </c>
+      <c r="C13" s="19">
+        <f t="shared" ref="C13:J13" si="3">C10*$B13</f>
+        <v>243.00000000000003</v>
+      </c>
+      <c r="D13" s="55">
+        <f t="shared" si="3"/>
+        <v>297</v>
+      </c>
+      <c r="E13" s="37">
+        <f t="shared" si="3"/>
+        <v>351</v>
+      </c>
+      <c r="F13" s="55">
+        <f t="shared" si="3"/>
+        <v>324</v>
+      </c>
+      <c r="G13" s="37">
+        <f t="shared" si="3"/>
+        <v>297</v>
+      </c>
+      <c r="H13" s="55">
+        <f t="shared" si="3"/>
+        <v>270</v>
+      </c>
+      <c r="I13" s="37">
+        <f t="shared" si="3"/>
+        <v>172.8</v>
+      </c>
+      <c r="J13" s="55">
+        <f t="shared" si="3"/>
+        <v>156.60000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.6">
+      <c r="A14" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="54"/>
+      <c r="C14" s="18">
+        <f t="shared" ref="C14:J14" si="4">C10*$B11</f>
+        <v>162</v>
+      </c>
+      <c r="D14" s="18">
+        <f t="shared" si="4"/>
+        <v>198</v>
+      </c>
+      <c r="E14" s="36">
+        <f t="shared" si="4"/>
         <v>234</v>
       </c>
-      <c r="F12" s="18">
-        <f t="shared" si="2"/>
+      <c r="F14" s="18">
+        <f t="shared" si="4"/>
         <v>216</v>
       </c>
-      <c r="G12" s="37">
-        <f t="shared" ref="G12" si="3">G11*$B12</f>
+      <c r="G14" s="18">
+        <f t="shared" si="4"/>
         <v>198</v>
       </c>
-      <c r="H12" s="18">
-        <f t="shared" si="2"/>
+      <c r="H14" s="18">
+        <f t="shared" si="4"/>
         <v>180</v>
       </c>
-      <c r="I12" s="37">
-        <f t="shared" ref="I12" si="4">I11*$B12</f>
+      <c r="I14" s="36">
+        <f t="shared" si="4"/>
         <v>115.2</v>
       </c>
-      <c r="J12" s="18">
-        <f t="shared" si="2"/>
+      <c r="J14" s="18">
+        <f t="shared" si="4"/>
         <v>104.4</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.75">
-      <c r="A13" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" s="32">
-        <v>2</v>
-      </c>
-      <c r="C13" s="19">
-        <f t="shared" ref="C13" si="5">C11*$B13</f>
+    <row r="15" spans="1:10" ht="15.6">
+      <c r="A15" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="31"/>
+      <c r="C15" s="19">
+        <f>C10*B12</f>
         <v>180</v>
       </c>
-      <c r="D13" s="19">
-        <f t="shared" ref="D13:J13" si="6">D11*$B13</f>
+      <c r="D15" s="19">
+        <f>D10*$B12</f>
         <v>220</v>
       </c>
-      <c r="E13" s="38">
+      <c r="E15" s="37">
+        <f>E10*$B12</f>
+        <v>260</v>
+      </c>
+      <c r="F15" s="19">
+        <f>F10*$B12</f>
+        <v>240</v>
+      </c>
+      <c r="G15" s="19">
+        <f>G10*$B12</f>
+        <v>220</v>
+      </c>
+      <c r="H15" s="19">
+        <f>H10*$B11</f>
+        <v>180</v>
+      </c>
+      <c r="I15" s="37">
+        <f>I10*$B11</f>
+        <v>115.2</v>
+      </c>
+      <c r="J15" s="19">
+        <f>J10*$B11</f>
+        <v>104.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.6">
+      <c r="A16" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="31"/>
+      <c r="C16" s="19">
+        <f t="shared" ref="C16:J16" si="5">C10*$B12</f>
+        <v>180</v>
+      </c>
+      <c r="D16" s="19">
+        <f t="shared" si="5"/>
+        <v>220</v>
+      </c>
+      <c r="E16" s="37">
+        <f t="shared" si="5"/>
+        <v>260</v>
+      </c>
+      <c r="F16" s="19">
+        <f t="shared" si="5"/>
+        <v>240</v>
+      </c>
+      <c r="G16" s="19">
+        <f t="shared" si="5"/>
+        <v>220</v>
+      </c>
+      <c r="H16" s="19">
+        <f t="shared" si="5"/>
+        <v>200</v>
+      </c>
+      <c r="I16" s="37">
+        <f t="shared" si="5"/>
+        <v>128</v>
+      </c>
+      <c r="J16" s="19">
+        <f t="shared" si="5"/>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15.6">
+      <c r="A17" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="31"/>
+      <c r="C17" s="19">
+        <f t="shared" ref="C17:J17" si="6">C10*$B12</f>
+        <v>180</v>
+      </c>
+      <c r="D17" s="19">
+        <f t="shared" si="6"/>
+        <v>220</v>
+      </c>
+      <c r="E17" s="37">
         <f t="shared" si="6"/>
         <v>260</v>
       </c>
-      <c r="F13" s="19">
+      <c r="F17" s="19">
         <f t="shared" si="6"/>
         <v>240</v>
       </c>
-      <c r="G13" s="38">
-        <f t="shared" ref="G13" si="7">G11*$B13</f>
+      <c r="G17" s="19">
+        <f t="shared" si="6"/>
         <v>220</v>
       </c>
-      <c r="H13" s="19">
+      <c r="H17" s="19">
         <f t="shared" si="6"/>
         <v>200</v>
       </c>
-      <c r="I13" s="38">
-        <f t="shared" ref="I13" si="8">I11*$B13</f>
+      <c r="I17" s="37">
+        <f t="shared" si="6"/>
         <v>128</v>
       </c>
-      <c r="J13" s="19">
+      <c r="J17" s="19">
         <f t="shared" si="6"/>
         <v>116</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="16.5" thickBot="1">
-      <c r="A14" s="58" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="29">
-        <v>2.7</v>
-      </c>
-      <c r="C14" s="19">
-        <f t="shared" ref="C14" si="9">C11*$B14</f>
-        <v>243.00000000000003</v>
-      </c>
-      <c r="D14" s="60">
-        <f t="shared" ref="D14:J14" si="10">D11*$B14</f>
-        <v>297</v>
-      </c>
-      <c r="E14" s="38">
-        <f t="shared" si="10"/>
-        <v>351</v>
-      </c>
-      <c r="F14" s="60">
-        <f t="shared" si="10"/>
-        <v>324</v>
-      </c>
-      <c r="G14" s="38">
-        <f t="shared" si="10"/>
-        <v>297</v>
-      </c>
-      <c r="H14" s="60">
-        <f t="shared" si="10"/>
-        <v>270</v>
-      </c>
-      <c r="I14" s="38">
-        <f t="shared" si="10"/>
-        <v>172.8</v>
-      </c>
-      <c r="J14" s="60">
-        <f t="shared" si="10"/>
-        <v>156.60000000000002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="15.75">
-      <c r="A15" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="59"/>
-      <c r="C15" s="18">
-        <f t="shared" ref="C15" si="11">C11*$B12</f>
-        <v>162</v>
-      </c>
-      <c r="D15" s="18">
-        <f t="shared" ref="D15:F15" si="12">D11*$B12</f>
-        <v>198</v>
-      </c>
-      <c r="E15" s="37">
-        <f t="shared" si="12"/>
-        <v>234</v>
-      </c>
-      <c r="F15" s="18">
-        <f t="shared" si="12"/>
-        <v>216</v>
-      </c>
-      <c r="G15" s="18">
-        <f t="shared" ref="G15" si="13">G11*$B12</f>
-        <v>198</v>
-      </c>
-      <c r="H15" s="18">
-        <f>H11*$B12</f>
-        <v>180</v>
-      </c>
-      <c r="I15" s="37">
-        <f t="shared" ref="I15" si="14">I11*$B12</f>
-        <v>115.2</v>
-      </c>
-      <c r="J15" s="18">
-        <f>J11*$B12</f>
-        <v>104.4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15.75">
-      <c r="A16" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="32"/>
-      <c r="C16" s="19">
-        <f>C11*B13</f>
-        <v>180</v>
-      </c>
-      <c r="D16" s="19">
-        <f>D11*$B13</f>
-        <v>220</v>
-      </c>
-      <c r="E16" s="38">
-        <f>E11*$B13</f>
-        <v>260</v>
-      </c>
-      <c r="F16" s="19">
-        <f>F11*$B13</f>
-        <v>240</v>
-      </c>
-      <c r="G16" s="19">
-        <f>G11*$B13</f>
-        <v>220</v>
-      </c>
-      <c r="H16" s="19">
-        <f>H11*$B12</f>
-        <v>180</v>
-      </c>
-      <c r="I16" s="38">
-        <f>I11*$B12</f>
-        <v>115.2</v>
-      </c>
-      <c r="J16" s="19">
-        <f>J11*$B12</f>
-        <v>104.4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="15.75">
-      <c r="A17" s="46" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="32"/>
-      <c r="C17" s="19">
-        <f t="shared" ref="C17" si="15">C11*$B13</f>
-        <v>180</v>
-      </c>
-      <c r="D17" s="19">
-        <f t="shared" ref="D17:F17" si="16">D11*$B13</f>
-        <v>220</v>
-      </c>
-      <c r="E17" s="38">
-        <f t="shared" si="16"/>
-        <v>260</v>
-      </c>
-      <c r="F17" s="19">
-        <f t="shared" si="16"/>
-        <v>240</v>
-      </c>
-      <c r="G17" s="19">
-        <f t="shared" ref="G17" si="17">G11*$B13</f>
-        <v>220</v>
-      </c>
-      <c r="H17" s="19">
-        <f>H11*$B13</f>
+    <row r="18" spans="1:10" ht="15.6">
+      <c r="A18" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="31">
+        <v>2.5</v>
+      </c>
+      <c r="C18" s="19">
+        <f>C10*$B18</f>
+        <v>225</v>
+      </c>
+      <c r="D18" s="19">
+        <f>D10*$B18</f>
+        <v>275</v>
+      </c>
+      <c r="E18" s="37">
+        <f>E10*$B18</f>
+        <v>325</v>
+      </c>
+      <c r="F18" s="19">
+        <f>F10*$B18</f>
+        <v>300</v>
+      </c>
+      <c r="G18" s="19">
+        <f>G10*$B18</f>
+        <v>275</v>
+      </c>
+      <c r="H18" s="19">
+        <f>H10*$B12</f>
         <v>200</v>
       </c>
-      <c r="I17" s="38">
-        <f t="shared" ref="I17" si="18">I11*$B13</f>
+      <c r="I18" s="37">
+        <f>I10*$B12</f>
         <v>128</v>
       </c>
-      <c r="J17" s="19">
-        <f>J11*$B13</f>
+      <c r="J18" s="19">
+        <f>J10*$B12</f>
         <v>116</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15.75">
-      <c r="A18" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="32"/>
-      <c r="C18" s="19">
-        <f t="shared" ref="C18" si="19">C11*$B13</f>
-        <v>180</v>
-      </c>
-      <c r="D18" s="19">
-        <f t="shared" ref="D18:F18" si="20">D11*$B13</f>
-        <v>220</v>
-      </c>
-      <c r="E18" s="38">
-        <f t="shared" si="20"/>
-        <v>260</v>
-      </c>
-      <c r="F18" s="19">
-        <f t="shared" si="20"/>
-        <v>240</v>
-      </c>
-      <c r="G18" s="19">
-        <f t="shared" ref="G18" si="21">G11*$B13</f>
-        <v>220</v>
-      </c>
-      <c r="H18" s="19">
-        <f>H11*$B13</f>
-        <v>200</v>
-      </c>
-      <c r="I18" s="38">
-        <f t="shared" ref="I18" si="22">I11*$B13</f>
-        <v>128</v>
-      </c>
-      <c r="J18" s="19">
-        <f>J11*$B13</f>
-        <v>116</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="15.75">
-      <c r="A19" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="32">
-        <v>2.5</v>
-      </c>
-      <c r="C19" s="19">
-        <f t="shared" ref="C19" si="23">C11*$B19</f>
-        <v>225</v>
-      </c>
-      <c r="D19" s="19">
-        <f t="shared" ref="D19:G19" si="24">D11*$B19</f>
-        <v>275</v>
-      </c>
-      <c r="E19" s="38">
-        <f t="shared" si="24"/>
-        <v>325</v>
-      </c>
-      <c r="F19" s="19">
-        <f t="shared" si="24"/>
-        <v>300</v>
-      </c>
-      <c r="G19" s="19">
-        <f t="shared" si="24"/>
-        <v>275</v>
-      </c>
-      <c r="H19" s="19">
-        <f>H11*$B13</f>
-        <v>200</v>
-      </c>
-      <c r="I19" s="38">
-        <f>I11*$B13</f>
-        <v>128</v>
-      </c>
-      <c r="J19" s="19">
-        <f>J11*$B13</f>
-        <v>116</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="16.5" thickBot="1">
-      <c r="A20" s="61"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="63"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="63"/>
-      <c r="G20" s="62"/>
-      <c r="H20" s="63"/>
-      <c r="I20" s="62"/>
-      <c r="J20" s="63"/>
-    </row>
-    <row r="21" spans="1:10" ht="16.5" thickBot="1">
-      <c r="A21" s="47" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="30"/>
-      <c r="C21" s="64">
+    <row r="19" spans="1:10" ht="16.2" thickBot="1">
+      <c r="A19" s="56"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="58"/>
+    </row>
+    <row r="20" spans="1:10" ht="16.2" thickBot="1">
+      <c r="A20" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="29"/>
+      <c r="C20" s="59">
         <v>0.2</v>
       </c>
-      <c r="D21" s="64">
+      <c r="D20" s="59">
         <v>0.2</v>
       </c>
-      <c r="E21" s="64">
+      <c r="E20" s="59">
         <v>0.25</v>
       </c>
-      <c r="F21" s="64">
+      <c r="F20" s="59">
         <v>0.2</v>
       </c>
-      <c r="G21" s="64">
+      <c r="G20" s="59">
         <v>0.2</v>
       </c>
-      <c r="H21" s="64">
+      <c r="H20" s="59">
         <v>0.2</v>
       </c>
-      <c r="I21" s="64">
+      <c r="I20" s="59">
         <v>0.15</v>
       </c>
-      <c r="J21" s="64">
+      <c r="J20" s="59">
         <v>0.1</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A22" s="24"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="42"/>
-    </row>
-    <row r="23" spans="1:10" ht="16.5" thickBot="1">
-      <c r="A23" s="47" t="s">
+    <row r="21" spans="1:10" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A21" s="24"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="41"/>
+    </row>
+    <row r="22" spans="1:10" ht="16.2" thickBot="1">
+      <c r="A22" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="30"/>
-      <c r="C23" s="48">
+      <c r="B22" s="29"/>
+      <c r="C22" s="47">
         <v>3</v>
       </c>
-      <c r="D23" s="48">
+      <c r="D22" s="47">
         <v>3</v>
       </c>
-      <c r="E23" s="49">
+      <c r="E22" s="48">
         <v>3</v>
       </c>
-      <c r="F23" s="48">
+      <c r="F22" s="47">
         <v>3</v>
       </c>
-      <c r="G23" s="49">
+      <c r="G22" s="48">
         <v>3</v>
       </c>
-      <c r="H23" s="48">
+      <c r="H22" s="47">
         <v>3</v>
       </c>
-      <c r="I23" s="49">
+      <c r="I22" s="48">
         <v>2</v>
       </c>
-      <c r="J23" s="48">
+      <c r="J22" s="47">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="16.5" thickBot="1">
-      <c r="A24" s="25"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="44"/>
-    </row>
-    <row r="25" spans="1:10" ht="15.75">
-      <c r="A25" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B25" s="11"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="20"/>
-    </row>
-    <row r="26" spans="1:10" ht="15.75">
-      <c r="A26" s="10" t="s">
+    <row r="23" spans="1:10" ht="16.2" thickBot="1">
+      <c r="A23" s="25"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="43"/>
+    </row>
+    <row r="24" spans="1:10" ht="15.6">
+      <c r="A24" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="11"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="20"/>
+    </row>
+    <row r="25" spans="1:10" ht="15.6">
+      <c r="A25" s="10" t="s">
         <v>3</v>
       </c>
+      <c r="B25" s="7"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="21"/>
+    </row>
+    <row r="26" spans="1:10" ht="15.6">
+      <c r="A26" s="10"/>
       <c r="B26" s="7"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
@@ -2219,8 +2202,10 @@
       <c r="I26" s="8"/>
       <c r="J26" s="21"/>
     </row>
-    <row r="27" spans="1:10" ht="15.75">
-      <c r="A27" s="10"/>
+    <row r="27" spans="1:10" ht="15.6">
+      <c r="A27" s="10" t="s">
+        <v>4</v>
+      </c>
       <c r="B27" s="7"/>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
@@ -2231,22 +2216,22 @@
       <c r="I27" s="8"/>
       <c r="J27" s="21"/>
     </row>
-    <row r="28" spans="1:10" ht="15.75">
-      <c r="A28" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" s="7"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="21"/>
+    <row r="28" spans="1:10">
+      <c r="A28" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="22"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="60" t="s">
         <v>17</v>
       </c>
       <c r="B29" s="13"/>
@@ -2260,30 +2245,16 @@
       <c r="J29" s="22"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="65" t="s">
-        <v>18</v>
-      </c>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="22"/>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="66"/>
-      <c r="B31" s="66"/>
-      <c r="C31" s="66"/>
-      <c r="D31" s="66"/>
-      <c r="E31" s="66"/>
-      <c r="F31" s="66"/>
-      <c r="G31" s="66"/>
-      <c r="H31" s="66"/>
-      <c r="I31" s="66"/>
-      <c r="J31" s="66"/>
+      <c r="A30" s="61"/>
+      <c r="B30" s="61"/>
+      <c r="C30" s="61"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="61"/>
+      <c r="G30" s="61"/>
+      <c r="H30" s="61"/>
+      <c r="I30" s="61"/>
+      <c r="J30" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="4">
